--- a/NestingAssistant/ExcelTemplates/ProfileNestingSummaryTemplate.xlsx
+++ b/NestingAssistant/ExcelTemplates/ProfileNestingSummaryTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\NestingAssistant\NestingAssistant\ExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E69D70-4BDD-4C1E-97BD-D7BC2856A19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF008F0-5BF7-4E97-B335-111886772DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="套裁汇总" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>原材料类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,22 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原材料件数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零件件数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余总长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{AverageUtilization}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,6 +112,30 @@
   </si>
   <si>
     <t>{{Materials.Length}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件件数:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余总长度:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原材料件数:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总长度:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,16 +158,54 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -167,17 +213,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -194,6 +312,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>723899</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>895351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC22D816-FEEE-3DA5-02A4-6AF2D074E61B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723899" y="57150"/>
+          <a:ext cx="838201" cy="838201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,131 +632,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.44140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="F12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>第 &amp;P 页，共 &amp;N 页</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>